--- a/pred_ohlcv/54_21/2019-10-17 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 HYC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1255732.6641</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1255696.6641</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5735682.103999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11598368.3286</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14789771.3679</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>18905767.76774561</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23445094.34314562</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>31335844.72631677</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>29558751.06321677</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>25290892.79331677</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>20045795.66421677</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>18813964.90181677</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14469810.86862606</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>14478151.15872606</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>14480115.61822606</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>14480249.61822606</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>14530717.73572607</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>9411483.144017274</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>9410761.834717274</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>9358142.210317271</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 HYC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5735682.103999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11598368.3286</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14789771.3679</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>18905767.76774561</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23445094.34314562</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32489325.38466929</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>31816040.12126929</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>32005676.12051677</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>31718910.59761677</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>32039359.38311677</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>33020451.08921677</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>32531026.73301677</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>32340194.01001677</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>31426809.13431677</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>31583160.03071677</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>31335844.72631677</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>29558751.06321677</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>25290892.79331677</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>20045795.66421677</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>18813964.90181677</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>20832771.75811677</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>20769820.13072783</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>20754921.59022783</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14469810.86862606</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>14478151.15872606</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>14480115.61822606</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>14480249.61822606</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>14530717.73572607</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>9411483.144017274</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>9410761.834717274</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>9358142.210317271</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
